--- a/proto-2/build/events.xlsx
+++ b/proto-2/build/events.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gareth/Documents/dev/arsinoe/arsinoe-serious-game.github.io/proto-2/build/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03B0D869-EB73-3143-B1C0-AAC199961517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EB0DC1DC-26A4-BC43-A880-A93A5C5443DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14180" yWindow="6620" windowWidth="27640" windowHeight="16940" xr2:uid="{9FA60040-1657-2348-9093-E477E457163B}"/>
+    <workbookView xWindow="0" yWindow="4700" windowWidth="43560" windowHeight="16940" xr2:uid="{9FA60040-1657-2348-9093-E477E457163B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="events" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,14 +35,199 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Extreme Economic Event</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>Extreme Biodiversity Event</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Extreme Flood Event</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Extreme Drought Event</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Extreme Heat Event</t>
+  </si>
+  <si>
+    <t>desc-2</t>
+  </si>
+  <si>
+    <t>desc-3</t>
+  </si>
+  <si>
+    <t>event desc-1</t>
+  </si>
+  <si>
+    <t>event desc-2</t>
+  </si>
+  <si>
+    <t>event desc-3</t>
+  </si>
+  <si>
+    <t>outcome-0</t>
+  </si>
+  <si>
+    <t>outcome-1</t>
+  </si>
+  <si>
+    <t>outcome-2</t>
+  </si>
+  <si>
+    <t>outcome-3</t>
+  </si>
+  <si>
+    <t>outcome-4</t>
+  </si>
+  <si>
+    <t>severly under-prepared</t>
+  </si>
+  <si>
+    <t>under-prepared</t>
+  </si>
+  <si>
+    <t>fitting</t>
+  </si>
+  <si>
+    <t>overkill</t>
+  </si>
+  <si>
+    <t>extreme overkill</t>
+  </si>
+  <si>
+    <t>What is an Extreme Economic Event</t>
+  </si>
+  <si>
+    <t>heading-1</t>
+  </si>
+  <si>
+    <t>heading-2</t>
+  </si>
+  <si>
+    <t>heading-3</t>
+  </si>
+  <si>
+    <t>heading-4</t>
+  </si>
+  <si>
+    <t>What is an Extreme Economic Event?</t>
+  </si>
+  <si>
+    <t>Heavy Econimic event</t>
+  </si>
+  <si>
+    <t>Lifetime Econimic Event</t>
+  </si>
+  <si>
+    <t>desc-4</t>
+  </si>
+  <si>
+    <t>heading-0</t>
+  </si>
+  <si>
+    <t>desc-0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">event desc-1
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">event desc-2
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">event desc-3
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">severly under-prepared
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">under-prepared
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fitting
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">overkill
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extreme overkill
+Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. </t>
+  </si>
+  <si>
+    <t>outcome-heading</t>
+  </si>
+  <si>
+    <t>Extreme Economic Event Outcomes</t>
+  </si>
+  <si>
+    <t>Extreme Heat Event Outcomes</t>
+  </si>
+  <si>
+    <t>Extreme Drought Event Outcomes</t>
+  </si>
+  <si>
+    <t>Extreme Flood Event Outcomes</t>
+  </si>
+  <si>
+    <t>Extreme Biodiversity Event Outcomes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,8 +251,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +606,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B6F843-1AAB-8843-9FAB-852B5676A60F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="8" width="22.5" style="4" customWidth="1"/>
+    <col min="9" max="11" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" style="4" customWidth="1"/>
+    <col min="13" max="17" width="23.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;11&amp;KFF8C00 RESTRICTED&amp;1#_x000D_</oddHeader>
